--- a/Decisions.xlsx
+++ b/Decisions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvar\OneDrive\Escritorio\uipath\excel_uipath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457376CC-12B5-41A5-8189-CDF134A26708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8615A9-AC9D-43D1-8770-599BE1A4C001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="9240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t>Transaction Type</t>
   </si>
@@ -81,48 +81,6 @@
     <t>Alvin</t>
   </si>
   <si>
-    <t>Shalom</t>
-  </si>
-  <si>
-    <t>Pickin</t>
-  </si>
-  <si>
-    <t>Mack</t>
-  </si>
-  <si>
-    <t>Ryman</t>
-  </si>
-  <si>
-    <t>Ab</t>
-  </si>
-  <si>
-    <t>Pavier</t>
-  </si>
-  <si>
-    <t>Claudie</t>
-  </si>
-  <si>
-    <t>Suter</t>
-  </si>
-  <si>
-    <t>Lilia</t>
-  </si>
-  <si>
-    <t>Tschersich</t>
-  </si>
-  <si>
-    <t>Lianna</t>
-  </si>
-  <si>
-    <t>Sparshatt</t>
-  </si>
-  <si>
-    <t>Baxie</t>
-  </si>
-  <si>
-    <t>Kirsche</t>
-  </si>
-  <si>
     <t>Transaction #</t>
   </si>
   <si>
@@ -135,7 +93,22 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>Transaction has been processed.</t>
+    <t>Withdrawal</t>
+  </si>
+  <si>
+    <t>Split Deposit</t>
+  </si>
+  <si>
+    <t>Check #1</t>
+  </si>
+  <si>
+    <t>Check #2</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -145,7 +118,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,6 +249,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -622,10 +601,15 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -671,7 +655,7 @@
     <cellStyle name="Título 3" xfId="32" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="40" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     </dxf>
@@ -680,15 +664,27 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -704,13 +700,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Decisions" displayName="Decisions" ref="A1:H14" totalsRowShown="0">
-  <autoFilter ref="A1:H14" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Decisions" displayName="Decisions" ref="A1:J9" totalsRowShown="0">
+  <autoFilter ref="A1:J9" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="10">
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Transaction Type"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Cash In" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="On Us Check" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Not On US Check" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Cash In" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="On Us Check" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Not On US Check" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{39D81A04-7CAF-4B00-AC2B-735BB8EFA825}" name="Check #1" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{98F4943B-E0A3-434F-94EE-AA91055786B1}" name="Check #2" dataDxfId="3"/>
     <tableColumn id="12" xr3:uid="{4B10E16B-6684-4754-8EBF-AA8AF93404D6}" name="Transaction #" dataDxfId="2"/>
     <tableColumn id="11" xr3:uid="{D56D6A53-BC2C-4104-9CE2-E3450CB1090F}" name="First Name" dataDxfId="1"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Last Name"/>
@@ -1017,23 +1015,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="6" width="17.28515625" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="17.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1047,321 +1045,222 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>34</v>
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>132.88</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>20.149999999999999</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>160.08000000000001</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="F2" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="3"/>
+      <c r="H2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1">
-        <v>30.52</v>
-      </c>
-      <c r="C3" s="1">
-        <v>45.22</v>
-      </c>
-      <c r="D3" s="1">
-        <v>92.77</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2">
+        <v>20.149999999999999</v>
+      </c>
+      <c r="F3" s="2">
+        <v>160.08000000000001</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="1"/>
+      <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1">
+        <v>25</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="2">
         <v>225.57</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C5" s="2">
         <v>144.82</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D5" s="2">
         <v>46.94</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" t="s">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="3"/>
+      <c r="H5" t="s">
         <v>9</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I5" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="1"/>
+      <c r="J5" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1">
-        <v>124.45</v>
-      </c>
-      <c r="C5" s="1">
-        <v>123.34</v>
-      </c>
-      <c r="D5" s="1">
-        <v>246.57</v>
-      </c>
-      <c r="E5" s="2">
-        <v>231321</v>
-      </c>
-      <c r="F5" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2">
+        <v>125.67</v>
+      </c>
+      <c r="F6" s="2">
+        <v>34.270000000000003</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I6" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="J6" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1">
-        <v>192.58</v>
-      </c>
-      <c r="C6" s="1">
-        <v>125.67</v>
-      </c>
-      <c r="D6" s="1">
-        <v>34.270000000000003</v>
-      </c>
-      <c r="E6" s="2">
-        <v>231322</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
+        <v>192.58</v>
+      </c>
+      <c r="C7" s="2">
+        <v>125.67</v>
+      </c>
+      <c r="D7" s="2">
+        <v>34.270000000000003</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="3"/>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2">
         <v>154.5</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C8" s="2">
         <v>70.25</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D8" s="2">
         <v>15.37</v>
       </c>
-      <c r="E7" s="2">
-        <v>231333</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="3"/>
+      <c r="H8" t="s">
         <v>15</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I8" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="1"/>
+      <c r="J8" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>16.96</v>
-      </c>
-      <c r="C8" s="1">
-        <v>240.51</v>
-      </c>
-      <c r="D8" s="1">
-        <v>131.09</v>
-      </c>
-      <c r="E8" s="2">
-        <v>231334</v>
-      </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1">
-        <v>222.85</v>
-      </c>
-      <c r="C9" s="1">
-        <v>97.24</v>
-      </c>
-      <c r="D9" s="1">
-        <v>116.26</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1">
-        <v>172.45</v>
-      </c>
-      <c r="C10" s="1">
-        <v>232.3</v>
-      </c>
-      <c r="D10" s="1">
-        <v>220.76</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="1">
-        <v>196.71</v>
-      </c>
-      <c r="C11" s="1">
-        <v>115</v>
-      </c>
-      <c r="D11" s="1">
-        <v>182.92</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="1">
-        <v>187.06</v>
-      </c>
-      <c r="C12" s="1">
-        <v>231.36</v>
-      </c>
-      <c r="D12" s="1">
-        <v>211.69</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" t="s">
         <v>25</v>
       </c>
-      <c r="G12" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="1">
-        <v>190.57</v>
-      </c>
-      <c r="C13" s="1">
-        <v>69.989999999999995</v>
-      </c>
-      <c r="D13" s="1">
-        <v>174.54</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="1">
-        <v>122.69</v>
-      </c>
-      <c r="C14" s="1">
-        <v>17.739999999999998</v>
-      </c>
-      <c r="D14" s="1">
-        <v>11.57</v>
-      </c>
-      <c r="E14" s="2">
-        <v>231330</v>
-      </c>
-      <c r="F14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
